--- a/DATA_goal/Junction_Flooding_148.xlsx
+++ b/DATA_goal/Junction_Flooding_148.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -464,12 +464,12 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41580.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.44</v>
+        <v>2.24</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.58</v>
+        <v>15.86</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.18</v>
+        <v>3.02</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41580.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.25</v>
+        <v>2.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.68</v>
+        <v>2.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.15</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>103.7</v>
+        <v>10.37</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.45</v>
+        <v>0.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.6</v>
+        <v>2.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41580.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.56</v>
+        <v>2.56</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.95</v>
+        <v>9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.46</v>
+        <v>2.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41580.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.17</v>
+        <v>2.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>1.32</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>41.19</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>269.65</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>50.82</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>34.13</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>13.16</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.24</v>
+        <v>2.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.42</v>
+        <v>6.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41580.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>37.22</v>
+        <v>3.72</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.26</v>
+        <v>3.03</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>53.88</v>
+        <v>5.39</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.04</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>196.41</v>
+        <v>19.64</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>37.48</v>
+        <v>3.75</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.14</v>
+        <v>2.51</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>25.99</v>
+        <v>2.6</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>49.13</v>
+        <v>4.91</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41580.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40.98</v>
+        <v>4.1</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.45</v>
+        <v>3.34</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>57.78</v>
+        <v>5.78</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>217.01</v>
+        <v>21.7</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>41.22</v>
+        <v>4.12</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.72</v>
+        <v>2.77</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>28.05</v>
+        <v>2.8</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>52.52</v>
+        <v>5.25</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41580.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>33.45</v>
+        <v>3.35</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>27.29</v>
+        <v>2.73</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>48.35</v>
+        <v>4.84</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>175.81</v>
+        <v>17.58</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>33.68</v>
+        <v>3.37</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>22.64</v>
+        <v>2.26</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>23.3</v>
+        <v>2.33</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>44.02</v>
+        <v>4.4</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41580.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>35.75</v>
+        <v>3.58</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>29.23</v>
+        <v>2.92</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>50.51</v>
+        <v>5.05</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>188.39</v>
+        <v>18.84</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.96</v>
+        <v>3.6</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>24.21</v>
+        <v>2.42</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.5</v>
+        <v>2.45</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.05</v>
+        <v>1.5</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>45.9</v>
+        <v>4.59</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41580.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.52</v>
+        <v>3.05</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>24.95</v>
+        <v>2.49</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>44</v>
+        <v>4.4</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.65</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>159.78</v>
+        <v>15.98</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>30.73</v>
+        <v>3.07</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.68</v>
+        <v>2.07</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.84</v>
+        <v>1.08</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>40.04</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_148.xlsx
+++ b/DATA_goal/Junction_Flooding_148.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,10 +449,10 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41580.34027777778</v>
+        <v>44829.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>2.99</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>2.24</v>
-      </c>
       <c r="G2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.2</v>
+        <v>4.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.29</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.89</v>
+        <v>1.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.89</v>
+        <v>3.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41580.34722222222</v>
+        <v>44829.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.92</v>
+        <v>1.68</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.64</v>
+        <v>1.19</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.37</v>
+        <v>19.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.05</v>
+        <v>3.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.67</v>
+        <v>1.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.33</v>
+        <v>2.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.42</v>
+        <v>2.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.64</v>
+        <v>1.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.52</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.66</v>
+        <v>4.62</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41580.35416666666</v>
+        <v>44829.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.31</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.19</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.56</v>
+        <v>1.16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.17</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.12</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.13</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.35</v>
+        <v>1.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41580.36111111111</v>
+        <v>44829.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.32</v>
+        <v>1.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.72</v>
+        <v>0.87</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.06</v>
+        <v>2.61</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.12</v>
+        <v>2.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.95</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.76</v>
+        <v>3.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.82</v>
+        <v>1.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.03</v>
+        <v>1.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.15</v>
+        <v>1.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.59</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.97</v>
+        <v>13.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.08</v>
+        <v>2.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.68</v>
+        <v>0.87</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.41</v>
+        <v>1.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.79</v>
+        <v>0.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.35</v>
+        <v>1.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.77</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.12</v>
+        <v>1.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.14</v>
+        <v>2.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41580.36805555555</v>
+        <v>44829.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.7</v>
+        <v>17.78</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.27</v>
+        <v>13.08</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.72</v>
+        <v>38.64</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.03</v>
+        <v>31.54</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.34</v>
+        <v>13.99</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.39</v>
+        <v>52.6</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.07</v>
+        <v>21.52</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.92</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.35</v>
+        <v>14.1</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.49</v>
+        <v>15.51</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.59</v>
+        <v>16.35</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>4.91</v>
+        <v>47.79</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>7.21</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41580.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41580.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41580.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41580.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41580.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>51.19</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>192.97</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>36.79</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>46.49</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.19</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_148.xlsx
+++ b/DATA_goal/Junction_Flooding_148.xlsx
@@ -449,10 +449,10 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44829.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>204.37</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>22.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44829.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.64</v>
+        <v>36.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.93</v>
+        <v>29.27</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.07</v>
+        <v>50.67</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.23</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.3</v>
+        <v>192.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.41</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.47</v>
+        <v>24.75</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.62</v>
+        <v>46.22</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.7</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44829.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>1.16</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44829.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.57</v>
+        <v>135.7</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.98</v>
+        <v>29.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_148.xlsx
+++ b/DATA_goal/Junction_Flooding_148.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44829.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
@@ -759,49 +759,49 @@
         <v>44829.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.91</v>
+        <v>11.911</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.824</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.4</v>
+        <v>36.401</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.27</v>
+        <v>29.274</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.23</v>
+        <v>13.233</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.67</v>
+        <v>50.673</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.81</v>
+        <v>8.805999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.94</v>
+        <v>12.939</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>14.56</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.23</v>
+        <v>15.229</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.55</v>
+        <v>18.547</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>11.34</v>
@@ -810,52 +810,52 @@
         <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.092</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.97</v>
+        <v>192.972</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.82</v>
+        <v>36.819</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.41</v>
+        <v>24.411</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.67</v>
+        <v>12.674</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.37</v>
+        <v>2.374</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.75</v>
+        <v>24.745</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.69</v>
+        <v>9.691000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.37</v>
+        <v>11.371</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.17</v>
+        <v>15.167</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.22</v>
+        <v>46.217</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>6.7</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="4">
@@ -863,79 +863,79 @@
         <v>44829.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>1.441</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.06</v>
+        <v>3.058</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.14</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.59</v>
+        <v>11.592</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.219</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.174</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.397</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.63</v>
+        <v>1.633</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>1.275</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>9.99</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.7</v>
+        <v>3.702</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.34</v>
+        <v>2.335</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.019</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>0.92</v>
@@ -944,22 +944,22 @@
         <v>1.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.156</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.194</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.2</v>
+        <v>11.202</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44829.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.86</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_148.xlsx
+++ b/DATA_goal/Junction_Flooding_148.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44829.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.01</v>
+        <v>12.011</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.678000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.08</v>
+        <v>26.085</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.08</v>
+        <v>21.079</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.22</v>
+        <v>33.218</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.34</v>
+        <v>9.340999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.47</v>
+        <v>10.468</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.99</v>
+        <v>10.994</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.02</v>
+        <v>3.015</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.06</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.591</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.7</v>
+        <v>135.698</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.1</v>
+        <v>26.104</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.37</v>
+        <v>17.375</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.138999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.56</v>
+        <v>1.558</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.26</v>
+        <v>16.264</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.88</v>
+        <v>6.875</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.95</v>
+        <v>10.948</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.77</v>
+        <v>29.767</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.81</v>
+        <v>4.813</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.85</v>
+        <v>10.846</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44829.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_148.xlsx
+++ b/DATA_goal/Junction_Flooding_148.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44829.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.011</v>
+        <v>12.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.958</v>
+        <v>0.96</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.085</v>
+        <v>26.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.079</v>
+        <v>21.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.452</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.218</v>
+        <v>33.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.543</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.340999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.468</v>
+        <v>10.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.994</v>
+        <v>10.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.015</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.058999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.591</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.698</v>
+        <v>135.7</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.104</v>
+        <v>26.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.676</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.375</v>
+        <v>17.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.138999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.558</v>
+        <v>1.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.264</v>
+        <v>16.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.663</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.875</v>
+        <v>6.88</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.948</v>
+        <v>10.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.767</v>
+        <v>29.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.813</v>
+        <v>4.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.846</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44829.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.86</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>
